--- a/data/trans_camb/P16_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>10,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,81</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-3,58</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-2,95</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-3,99</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5,5</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 4,12</t>
+          <t>-4,65; 3,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 1,63</t>
+          <t>-5,82; 1,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 2,79</t>
+          <t>-5,07; 2,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 0,42</t>
+          <t>-6,11; 1,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,13; -2,62</t>
+          <t>3,36; 21,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 0,46</t>
+          <t>3,88; 21,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,35; -1,34</t>
+          <t>-12,69; -1,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 5,78</t>
+          <t>-10,22; 0,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,26; -0,41</t>
+          <t>-12,4; -2,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-6,69; -0,17</t>
+          <t>-4,54; 10,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; -0,57</t>
+          <t>-11,68; 3,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 1,74</t>
+          <t>-6,24; 7,61</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,16; -0,3</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 0,17</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-7,41; -1,05</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 5,03</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 10,19</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 12,38</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,07%</t>
+          <t>-9,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-48,5%</t>
+          <t>-50,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-31,86%</t>
+          <t>-34,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-74,24%</t>
+          <t>-70,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-74,66%</t>
+          <t>934,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-49,5%</t>
+          <t>1081,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-69,75%</t>
+          <t>-73,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,46%</t>
+          <t>-44,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-56,04%</t>
+          <t>-72,11%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-48,22%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-58,57%</t>
+          <t>-30,43%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-32,21%</t>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-54,95%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-45,24%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-61,18%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>45,04%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>124,39%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-81,63; 271,99</t>
+          <t>-86,99; 266,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 135,71</t>
+          <t>-100,0; 155,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 227,53</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 440,65</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; inf</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-95,02; -15,66</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,05; 15,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-91,42; -6,02</t>
+          <t>-94,45; 5,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,85; 90,54</t>
+          <t>-76,78; 18,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-83,86; 3,98</t>
+          <t>-92,64; -27,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-74,84; 5,83</t>
+          <t>-38,32; 161,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-85,0; -7,62</t>
+          <t>-68,67; 43,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-69,2; 42,33</t>
+          <t>-56,81; 179,3</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-84,68; -1,05</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-72,44; 6,33</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-85,54; -16,0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-49,7; 110,53</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-28,02; 205,93</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 397,81</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>5,2</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4,0</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -0,11</t>
+          <t>-9,77; -0,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 1,1</t>
+          <t>-8,71; 1,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,5</t>
+          <t>-4,96; 6,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 11,62</t>
+          <t>-2,86; 19,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 2,0</t>
+          <t>-9,78; 16,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 5,17</t>
+          <t>-4,66; 16,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 6,57</t>
+          <t>-8,06; 2,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 16,34</t>
+          <t>-5,06; 5,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,34; -0,69</t>
+          <t>-4,2; 7,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 1,64</t>
+          <t>0,32; 13,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 5,1</t>
+          <t>-3,05; 13,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 12,43</t>
+          <t>-6,32; 11,54</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; -0,38</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 1,85</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 5,25</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 14,88</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 12,31</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 11,25</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-66,58%</t>
+          <t>-66,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-49,25%</t>
+          <t>-48,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>75,17%</t>
+          <t>74,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-39,19%</t>
+          <t>44,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>-37,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>108,39%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-51,95%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-20,77%</t>
+          <t>79,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-51,13%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-19,66%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>18,61%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>76,76%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>41,12%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>28,89%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-93,68; 17,38</t>
+          <t>-92,32; 2,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-85,33; 57,31</t>
+          <t>-83,5; 34,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,33; 166,84</t>
+          <t>-51,9; 177,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,61; 322,57</t>
+          <t>-44,51; 454,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,85; 44,47</t>
+          <t>-59,34; 290,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,55; 97,28</t>
+          <t>-33,76; 241,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,35; 117,69</t>
+          <t>-76,81; 54,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 307,74</t>
+          <t>-47,72; 107,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-78,14; -5,08</t>
+          <t>-40,45; 120,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-57,43; 30,57</t>
+          <t>1,03; 235,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 96,77</t>
+          <t>-18,08; 135,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,26; 227,26</t>
+          <t>-29,18; 97,18</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-77,78; -1,13</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-54,04; 32,91</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-31,24; 95,2</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 255,2</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-25,55; 130,63</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-16,25; 103,02</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1496,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1218,52 +1506,82 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 2,79</t>
+          <t>-5,35; 4,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 0,88</t>
+          <t>-7,16; 1,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 10,29</t>
+          <t>-2,54; 10,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 12,04</t>
+          <t>0,2; 11,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 0,62</t>
+          <t>-4,88; 11,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 4,79</t>
+          <t>-4,96; 11,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 10,38</t>
+          <t>-7,58; 1,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 14,79</t>
+          <t>-5,01; 4,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 0,98</t>
+          <t>0,62; 10,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 1,42</t>
+          <t>1,89; 12,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 8,2</t>
+          <t>-4,1; 10,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 11,33</t>
+          <t>-6,16; 8,91</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 1,33</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 1,54</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 8,5</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 10,35</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 8,4</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 7,93</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-17,99%</t>
+          <t>-9,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-38,75%</t>
+          <t>-38,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>77,48%</t>
+          <t>74,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-33,38%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,08%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>46,79%</t>
+          <t>-30,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>77,27%</t>
+          <t>-0,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-27,18%</t>
+          <t>48,78%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-17,17%</t>
+          <t>63,4%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>75,23%</t>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-21,95%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-15,82%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>44,66%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>68,06%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>13,28%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,53; 50,38</t>
+          <t>-53,5; 74,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,46; 26,4</t>
+          <t>-69,61; 25,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 195,85</t>
+          <t>-28,54; 176,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 208,34</t>
+          <t>-0,04; 229,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,92; 9,86</t>
+          <t>-29,04; 107,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 58,17</t>
+          <t>-31,46; 105,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 122,27</t>
+          <t>-57,54; 24,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,36; 172,36</t>
+          <t>-36,73; 55,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 11,02</t>
+          <t>3,46; 125,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-46,11; 18,3</t>
+          <t>11,91; 152,22</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,72; 103,42</t>
+          <t>-20,15; 69,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,19; 145,86</t>
+          <t>-26,26; 57,44</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-48,08; 18,36</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-42,25; 21,35</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 111,52</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>18,41; 134,44</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-15,6; 59,77</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-16,75; 55,84</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,58</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>14,84</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,48</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>16,26</t>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>8,57</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>9,49</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 1,58</t>
+          <t>-10,8; 1,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 6,64</t>
+          <t>-7,39; 7,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 5,46</t>
+          <t>-6,8; 5,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,48; 26,46</t>
+          <t>-1,53; 13,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 3,92</t>
+          <t>7,22; 23,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 6,08</t>
+          <t>-7,13; 12,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 13,98</t>
+          <t>-8,05; 4,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,11; 21,45</t>
+          <t>-5,39; 7,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 1,14</t>
+          <t>1,95; 14,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 4,6</t>
+          <t>4,15; 17,8</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 8,14</t>
+          <t>-4,18; 12,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,04; 22,05</t>
+          <t>-7,18; 10,85</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-7,25; 1,55</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 4,69</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 8,59</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 13,14</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 15,22</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 7,9</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-31,94%</t>
+          <t>-28,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150,29%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,41%</t>
+          <t>78,88%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>-7,91%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-18,36%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>55,24%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-15,67%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>52,56%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>38,13%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-63,35; 19,51</t>
+          <t>-59,76; 24,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,79; 70,04</t>
+          <t>-44,61; 72,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,42; 60,43</t>
+          <t>-41,29; 60,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>49,31; 278,93</t>
+          <t>-13,15; 140,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,23; 23,86</t>
+          <t>30,62; 154,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 35,51</t>
+          <t>-19,75; 53,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,26; 83,13</t>
+          <t>-35,14; 27,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>31,32; 123,05</t>
+          <t>-23,47; 45,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 8,99</t>
+          <t>8,75; 86,63</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 32,01</t>
+          <t>16,71; 104,44</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 57,89</t>
+          <t>-12,24; 45,47</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>56,89; 155,61</t>
+          <t>-18,91; 36,27</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-37,83; 11,63</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-22,07; 33,43</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 61,72</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>17,16; 93,61</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>13,3; 68,59</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 27,38</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>27,45</t>
+          <t>14,36</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>26,99</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>17,53</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>27,43</t>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>8,8</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>16,12</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>10,47</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 10,37</t>
+          <t>-8,01; 10,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 9,74</t>
+          <t>-6,41; 10,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 16,3</t>
+          <t>-1,12; 16,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,09; 37,16</t>
+          <t>4,15; 24,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 8,82</t>
+          <t>2,36; 22,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 11,88</t>
+          <t>-10,6; 10,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,42; 17,43</t>
+          <t>-7,08; 8,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,51; 36,46</t>
+          <t>-3,6; 12,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 7,77</t>
+          <t>1,84; 17,31</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 9,46</t>
+          <t>7,98; 26,79</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>2,15; 14,3</t>
+          <t>-2,07; 19,26</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>19,89; 33,65</t>
+          <t>-10,78; 9,45</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 7,08</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 8,91</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 14,44</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>9,17; 22,64</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>3,26; 17,41</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; 6,13</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>43,53%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>157,12%</t>
+          <t>82,25%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>39,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>105,86%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>68,76%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>127,91%</t>
+          <t>-1,72%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>15,41%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>41,05%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>75,17%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-1,7%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 79,39</t>
+          <t>-37,55; 80,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 72,85</t>
+          <t>-29,78; 80,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 117,38</t>
+          <t>-9,69; 122,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>64,12; 276,9</t>
+          <t>14,92; 188,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 39,08</t>
+          <t>6,18; 85,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 54,83</t>
+          <t>-21,37; 26,19</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,44; 82,44</t>
+          <t>-24,26; 41,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>60,46; 176,3</t>
+          <t>-13,16; 56,98</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-18,55; 43,79</t>
+          <t>4,27; 79,73</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 49,63</t>
+          <t>25,71; 123,67</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>8,12; 79,56</t>
+          <t>-4,45; 50,71</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>79,46; 186,57</t>
+          <t>-18,87; 20,11</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-20,71; 38,56</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 50,44</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>10,24; 79,56</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>36,07; 120,01</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>7,93; 50,9</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-15,88; 13,66</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>18,09</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>19,35</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>21,69</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>5,16</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>13,4</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>6,15</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>11,34</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 16,12</t>
+          <t>-5,97; 15,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 21,07</t>
+          <t>-2,21; 18,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 13,93</t>
+          <t>-7,24; 12,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,48; 28,49</t>
+          <t>-4,9; 15,89</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 12,47</t>
+          <t>-2,71; 20,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 7,16</t>
+          <t>-14,86; 8,77</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 20,27</t>
+          <t>-5,91; 13,06</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 11,34</t>
+          <t>-8,54; 8,84</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 10,7</t>
+          <t>-2,46; 16,98</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 11,17</t>
+          <t>9,62; 29,93</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 14,68</t>
+          <t>-8,54; 14,56</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>0,34; 15,64</t>
+          <t>8,96; 34,17</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 10,7</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 10,6</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 12,3</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 21,77</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 15,29</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 20,16</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>68,74%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>-6,69%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>49,2%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>54,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>11,39%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>39,7%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>27,04%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 73,09</t>
+          <t>-21,36; 71,02</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 96,98</t>
+          <t>-8,78; 85,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 64,25</t>
+          <t>-24,57; 58,59</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,02; 133,83</t>
+          <t>-16,2; 71,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 34,61</t>
+          <t>-7,27; 81,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 20,87</t>
+          <t>-29,67; 22,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 57,43</t>
+          <t>-14,03; 37,47</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 31,05</t>
+          <t>-19,54; 24,75</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 34,5</t>
+          <t>-5,89; 46,63</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 36,02</t>
+          <t>22,27; 85,21</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 46,86</t>
+          <t>-13,16; 27,84</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>0,78; 50,56</t>
+          <t>19,04; 105,54</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-9,31; 34,0</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 33,75</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 40,91</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>14,71; 70,73</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 36,43</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 55,47</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>12,05</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>10,01</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>10,95</t>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>8,6</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>6,22</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>3,87</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,1</t>
+          <t>-3,63; 2,23</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,51</t>
+          <t>-2,8; 2,9</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,01</t>
+          <t>-0,94; 5,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>8,56; 15,43</t>
+          <t>2,74; 9,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 1,3</t>
+          <t>4,8; 13,19</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,26</t>
+          <t>-1,57; 7,05</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,98</t>
+          <t>-4,46; 1,37</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,52; 13,23</t>
+          <t>-2,96; 2,78</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,49</t>
+          <t>1,14; 7,18</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,08</t>
+          <t>7,42; 14,72</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,43</t>
+          <t>0,13; 8,31</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>8,31; 13,23</t>
+          <t>1,02; 9,3</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 1,1</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 2,25</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 5,22</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>6,18; 11,17</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 9,09</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 6,77</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-7,62%</t>
+          <t>-5,47%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>49,04%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-10,32%</t>
+          <t>48,1%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-2,91%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>-8,52%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>50,35%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-9,32%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-0,99%</t>
+          <t>55,99%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>68,05%</t>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-7,39%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>53,45%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>25,19%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 20,33</t>
+          <t>-27,05; 21,13</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 32,64</t>
+          <t>-20,48; 27,24</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 45,64</t>
+          <t>-7,4; 47,44</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>59,91; 144,29</t>
+          <t>18,29; 86,75</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 7,23</t>
+          <t>23,31; 81,16</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 12,32</t>
+          <t>-6,0; 31,44</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>5,63; 43,32</t>
+          <t>-21,08; 7,98</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>30,55; 70,63</t>
+          <t>-13,95; 14,69</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 3,49</t>
+          <t>4,89; 38,32</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 13,62</t>
+          <t>34,35; 78,26</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>5,23; 35,71</t>
+          <t>0,46; 29,25</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>49,18; 87,7</t>
+          <t>3,07; 33,45</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-20,2; 7,5</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-12,05; 15,01</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 35,29</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>35,94; 73,93</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>11,37; 39,15</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 27,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
